--- a/medicine/Enfance/Béatrice_Lalinon_Gbado/Béatrice_Lalinon_Gbado.xlsx
+++ b/medicine/Enfance/Béatrice_Lalinon_Gbado/Béatrice_Lalinon_Gbado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Lalinon_Gbado</t>
+          <t>Béatrice_Lalinon_Gbado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Lalinon Gbado, née le 21 juin 1962 (61 ans) à Kandi, est une auteure béninoise de livres pour enfants et de beaux livres. Écrivaine jeunesse et éditrice, elle est basée à Cotonou au Bénin. Elle est la fondatrice des Éditions Ruisseaux d'Afrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Lalinon_Gbado</t>
+          <t>Béatrice_Lalinon_Gbado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et étude
-Béatrice Lalinon Gbado est née à Kandi, au Bénin, en 1962, mais est conduite, durant son enfance, à suivre ses parents dans leurs déplacements professionnels. Elle découvre ainsi des cultures autres que la sienne[1].
-Carrière
-Elle est professeure de sciences dans divers collèges, de 1982 à 1991[1]. Elle commence à publier ses œuvres à partir de 1991, au lendemain de la Conférence nationale des forces vives de la nation qui s'est déroulée à Cotonou, au Bénin, du 19 au 28 février 1990. Son premier ouvrage autopublié en 1991, En marche vers la liberté (tomes 1 et 2) est une chronique des préludes du renouveau démocratique au Bénin. Son premier album jeunesse La belle Débô paraît en 1999 en coédition chez EDICEF (Hachette Livre International) et les Éditions du Flamboyant. Suivent une série d'ouvrages pédagogiques pour la maternelle qui mettent en valeur le patrimoine et l'environnement du jeune africain. Elle écrit des fictions, des contes et proverbes, de la poésie et des documentaires. Confrontée au nombre réduit de maisons d'édition africaines, elle fonde dès 1998 les éditions Ruisseaux d'Afrique[1],[2]. « Il est temps que les auteurs africains soient directement publiés en Afrique », affirme-t-elle[3]. De 2002 à 2006, elle anime également l'Association des éditeurs africains francophones au sud du Sahara, Afrilivres[1].
-Quelques œuvres reconnues : La belle Dêbo chez EDICEF, traduite en anglais (Editing Béatrice Lalinon Gbado) ; aux Éditions Ruisseaux d'Afrique : Les aventures de Biki chez EDICEF ; Kaïvi, l'enfant placée, La petite carpe dorée, Le Jardin des rues, Waali, le petit talibé, Le chant du conte et Zannou, sur les traces de Grand-père.
+          <t>Enfance et étude</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Lalinon Gbado est née à Kandi, au Bénin, en 1962, mais est conduite, durant son enfance, à suivre ses parents dans leurs déplacements professionnels. Elle découvre ainsi des cultures autres que la sienne.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Lalinon_Gbado</t>
+          <t>Béatrice_Lalinon_Gbado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est professeure de sciences dans divers collèges, de 1982 à 1991. Elle commence à publier ses œuvres à partir de 1991, au lendemain de la Conférence nationale des forces vives de la nation qui s'est déroulée à Cotonou, au Bénin, du 19 au 28 février 1990. Son premier ouvrage autopublié en 1991, En marche vers la liberté (tomes 1 et 2) est une chronique des préludes du renouveau démocratique au Bénin. Son premier album jeunesse La belle Débô paraît en 1999 en coédition chez EDICEF (Hachette Livre International) et les Éditions du Flamboyant. Suivent une série d'ouvrages pédagogiques pour la maternelle qui mettent en valeur le patrimoine et l'environnement du jeune africain. Elle écrit des fictions, des contes et proverbes, de la poésie et des documentaires. Confrontée au nombre réduit de maisons d'édition africaines, elle fonde dès 1998 les éditions Ruisseaux d'Afrique,. « Il est temps que les auteurs africains soient directement publiés en Afrique », affirme-t-elle. De 2002 à 2006, elle anime également l'Association des éditeurs africains francophones au sud du Sahara, Afrilivres.
+Quelques œuvres reconnues : La belle Dêbo chez EDICEF, traduite en anglais (Editing Béatrice Lalinon Gbado) ; aux Éditions Ruisseaux d'Afrique : Les aventures de Biki chez EDICEF ; Kaïvi, l'enfant placée, La petite carpe dorée, Le Jardin des rues, Waali, le petit talibé, Le chant du conte et Zannou, sur les traces de Grand-père.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cahier d'activités pour la maternelle
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cahier d'activités pour la maternelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les fruits
 Les animaux domestiques
 Les légumes et condiments
@@ -563,7 +621,43 @@
 Ganvié
 Danse mon petit, danse
 Les boubous
-Albums pour la petite enfance
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums pour la petite enfance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bovi, le petit cabri
 Bovi et le miroir
  Bovi sait compter
@@ -601,16 +695,122 @@
 À la découverte de la vie
 Le roi de la palmeraie
 Les chats de Christelle
-Roman jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La gifle
 Le nénuphar de Bola
 Mémé
 Hêdomey
-Contes et proverbes
-Chevaux fabuleux (Livre + CD)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contes et proverbes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chevaux fabuleux (Livre + CD)
 Le chant du conte (Livre + CD)
-Proverbes africains
-Poésie - Beaux livres
+Proverbes africains</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie - Beaux livres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Maman
 Tourterelles de mon enfance
 Papa, je t'aime
@@ -620,77 +820,150 @@
 Zannou, sur les traces de Grand-père
 Barka, l'ami de Sayouba
 Coiffures d'Afrique
-Sciences en partage
-Théorie de l'émergence de l'être
-Autres
-En marche vers la liberté, tomes1 et 2
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sciences en partage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Théorie de l'émergence de l'être</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En marche vers la liberté, tomes1 et 2
 L'Agenda de la famille</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B%C3%A9atrice_Lalinon_Gbado</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Alioune Diop 2002.
 Prix Alioune Diop 2005.
 Prix Alioune Diop 2007.
-Prix de l'Excellence Féminin au Bénin en 2002[4]..
-Prix Saint-Exupéry - Valeur Jeunesse, novembre 2013[5].
-Prix du meilleur éditeur du Bénin en 2021[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%A9atrice_Lalinon_Gbado</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Prix de l'Excellence Féminin au Bénin en 2002..
+Prix Saint-Exupéry - Valeur Jeunesse, novembre 2013.
+Prix du meilleur éditeur du Bénin en 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Béatrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Lalinon_Gbado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Œuvres sociales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présidente d'Afrilivres de 2002 à 2006[1].
-Membre fondatrice de l'Alliance internationale des éditeurs indépendants[7],[3],[2].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Présidente d'Afrilivres de 2002 à 2006.
+Membre fondatrice de l'Alliance internationale des éditeurs indépendants.
 Présidente de l'Association Mémoire de Clair de Lune.
 Présidente de l'Association SELIBEJ.</t>
         </is>
